--- a/data/survey/simulationSurvey_extraction_100papers_18012024.xlsx
+++ b/data/survey/simulationSurvey_extraction_100papers_18012024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5394590_ad_unsw_edu_au/Documents/Documents/Projects/simsurvey/data/survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{E97042F9-F6D1-4FCE-B1DA-C5E05AADEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A15EA7B-99AC-4C05-859D-C5852014B248}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{E97042F9-F6D1-4FCE-B1DA-C5E05AADEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E580E6-0597-4487-A183-8BE857247CAF}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="720" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simulationSurvey_extraction" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6236" uniqueCount="1901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6237" uniqueCount="1901">
   <si>
     <t>Timestamp</t>
   </si>
@@ -6670,80 +6670,80 @@
   <dimension ref="A1:CC101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="AY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AZ10" sqref="AZ2:AZ10"/>
+      <selection pane="bottomRight" activeCell="AZ108" sqref="AZ108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.5546875" customWidth="1"/>
-    <col min="12" max="12" width="38.109375" customWidth="1"/>
-    <col min="13" max="13" width="42.33203125" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" customWidth="1"/>
-    <col min="19" max="19" width="60.88671875" customWidth="1"/>
-    <col min="21" max="21" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.5703125" customWidth="1"/>
+    <col min="12" max="12" width="38.140625" customWidth="1"/>
+    <col min="13" max="13" width="42.28515625" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="60.85546875" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="95" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.6640625" customWidth="1"/>
-    <col min="25" max="25" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.7109375" customWidth="1"/>
+    <col min="25" max="25" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="29" customWidth="1"/>
     <col min="28" max="28" width="30" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" customWidth="1"/>
     <col min="30" max="30" width="69" customWidth="1"/>
-    <col min="31" max="31" width="62.33203125" customWidth="1"/>
-    <col min="32" max="32" width="32.109375" customWidth="1"/>
-    <col min="33" max="33" width="60.5546875" customWidth="1"/>
-    <col min="34" max="34" width="9.109375" customWidth="1"/>
-    <col min="36" max="36" width="58.109375" customWidth="1"/>
-    <col min="37" max="37" width="37.33203125" customWidth="1"/>
-    <col min="39" max="39" width="31.88671875" customWidth="1"/>
-    <col min="40" max="40" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="41.5546875" customWidth="1"/>
-    <col min="42" max="42" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.6640625" customWidth="1"/>
-    <col min="44" max="44" width="31.88671875" customWidth="1"/>
-    <col min="46" max="46" width="33.5546875" customWidth="1"/>
-    <col min="48" max="48" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="56.5546875" customWidth="1"/>
-    <col min="51" max="51" width="50.33203125" customWidth="1"/>
+    <col min="31" max="31" width="62.28515625" customWidth="1"/>
+    <col min="32" max="32" width="32.140625" customWidth="1"/>
+    <col min="33" max="33" width="60.5703125" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" customWidth="1"/>
+    <col min="36" max="36" width="58.140625" customWidth="1"/>
+    <col min="37" max="37" width="37.28515625" customWidth="1"/>
+    <col min="39" max="39" width="31.85546875" customWidth="1"/>
+    <col min="40" max="40" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="41.5703125" customWidth="1"/>
+    <col min="42" max="42" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.7109375" customWidth="1"/>
+    <col min="44" max="44" width="31.85546875" customWidth="1"/>
+    <col min="46" max="46" width="33.5703125" customWidth="1"/>
+    <col min="48" max="48" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="56.5703125" customWidth="1"/>
+    <col min="51" max="51" width="50.28515625" customWidth="1"/>
     <col min="52" max="52" width="24" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="43.5546875" customWidth="1"/>
-    <col min="54" max="54" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.5546875" customWidth="1"/>
-    <col min="57" max="57" width="40.109375" customWidth="1"/>
+    <col min="53" max="53" width="43.5703125" customWidth="1"/>
+    <col min="54" max="54" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.5703125" customWidth="1"/>
+    <col min="57" max="57" width="40.140625" customWidth="1"/>
     <col min="58" max="58" width="24" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="24.6640625" customWidth="1"/>
-    <col min="61" max="61" width="10.88671875" customWidth="1"/>
-    <col min="63" max="63" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="24.7109375" customWidth="1"/>
+    <col min="61" max="61" width="10.85546875" customWidth="1"/>
+    <col min="63" max="63" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="77" customWidth="1"/>
-    <col min="65" max="65" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="30.88671875" customWidth="1"/>
-    <col min="67" max="67" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="123.88671875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="74.6640625" customWidth="1"/>
+    <col min="65" max="65" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="30.85546875" customWidth="1"/>
+    <col min="67" max="67" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="123.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="74.7109375" customWidth="1"/>
     <col min="74" max="74" width="29" customWidth="1"/>
-    <col min="76" max="76" width="54.33203125" customWidth="1"/>
-    <col min="77" max="77" width="12.109375" customWidth="1"/>
-    <col min="78" max="78" width="37.109375" customWidth="1"/>
+    <col min="76" max="76" width="54.28515625" customWidth="1"/>
+    <col min="77" max="77" width="12.140625" customWidth="1"/>
+    <col min="78" max="78" width="37.140625" customWidth="1"/>
     <col min="79" max="79" width="43" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="43.109375" customWidth="1"/>
-    <col min="81" max="81" width="42.109375" customWidth="1"/>
+    <col min="80" max="80" width="43.140625" customWidth="1"/>
+    <col min="81" max="81" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1878</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:81" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:81" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="CC2"/>
     </row>
-    <row r="3" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>80</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="CC4"/>
     </row>
-    <row r="5" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>80</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>80</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>80</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
       <c r="CC8" s="8"/>
     </row>
-    <row r="9" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>184</v>
       </c>
@@ -8611,7 +8611,7 @@
       </c>
       <c r="CC9" s="3"/>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="CC10" s="3"/>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>80</v>
       </c>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="CC11" s="3"/>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="CC12" s="3"/>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>80</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="CC16" s="3"/>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="CC17" s="3"/>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>184</v>
       </c>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="CC18" s="6"/>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>80</v>
       </c>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="CC19" s="3"/>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>289</v>
       </c>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="CC20" s="18"/>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>289</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
@@ -11336,7 +11336,7 @@
       </c>
       <c r="CC22" s="3"/>
     </row>
-    <row r="23" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>80</v>
       </c>
@@ -11545,7 +11545,7 @@
       </c>
       <c r="CC23" s="3"/>
     </row>
-    <row r="24" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:81" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>184</v>
       </c>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="CC24"/>
     </row>
-    <row r="25" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>184</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>184</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>80</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="CC28" s="3"/>
     </row>
-    <row r="29" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="CC29" s="3"/>
     </row>
-    <row r="30" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>289</v>
       </c>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="CC30" s="3"/>
     </row>
-    <row r="31" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>80</v>
       </c>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="CC32" s="3"/>
     </row>
-    <row r="33" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>80</v>
       </c>
@@ -13622,7 +13622,7 @@
       </c>
       <c r="CC33"/>
     </row>
-    <row r="34" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>80</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>80</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>80</v>
       </c>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="CC36" s="14"/>
     </row>
-    <row r="37" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>80</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>184</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>80</v>
       </c>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="CC39"/>
     </row>
-    <row r="40" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>80</v>
       </c>
@@ -15013,7 +15013,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="41" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>289</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="42" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>80</v>
       </c>
@@ -15425,7 +15425,7 @@
       </c>
       <c r="CC42" s="7"/>
     </row>
-    <row r="43" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="44" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
@@ -15811,7 +15811,7 @@
       </c>
       <c r="CC44" s="6"/>
     </row>
-    <row r="45" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>80</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>80</v>
       </c>
@@ -16222,7 +16222,7 @@
       </c>
       <c r="CC46" s="3"/>
     </row>
-    <row r="47" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>80</v>
       </c>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="CC47" s="8"/>
     </row>
-    <row r="48" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>80</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>80</v>
       </c>
@@ -16834,7 +16834,7 @@
       </c>
       <c r="CC49"/>
     </row>
-    <row r="50" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>184</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>80</v>
       </c>
@@ -17246,7 +17246,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>80</v>
       </c>
@@ -17447,7 +17447,7 @@
       </c>
       <c r="CC52" s="9"/>
     </row>
-    <row r="53" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>80</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>80</v>
       </c>
@@ -17853,7 +17853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:81" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:81" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>184</v>
       </c>
@@ -18066,7 +18066,7 @@
       </c>
       <c r="CC55" s="3"/>
     </row>
-    <row r="56" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>80</v>
       </c>
@@ -18282,7 +18282,7 @@
       </c>
       <c r="CC56"/>
     </row>
-    <row r="57" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>80</v>
       </c>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="CC57"/>
     </row>
-    <row r="58" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>80</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>184</v>
       </c>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="CC59" s="3"/>
     </row>
-    <row r="60" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>80</v>
       </c>
@@ -19115,7 +19115,7 @@
       </c>
       <c r="CC60" s="8"/>
     </row>
-    <row r="61" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>80</v>
       </c>
@@ -19344,7 +19344,7 @@
       </c>
       <c r="CC61" s="15"/>
     </row>
-    <row r="62" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>80</v>
       </c>
@@ -19547,7 +19547,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>80</v>
       </c>
@@ -19766,7 +19766,7 @@
       </c>
       <c r="CC63" s="3"/>
     </row>
-    <row r="64" spans="1:81" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:81" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>80</v>
       </c>
@@ -19983,7 +19983,7 @@
       </c>
       <c r="CC64" s="3"/>
     </row>
-    <row r="65" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>80</v>
       </c>
@@ -20205,7 +20205,7 @@
       </c>
       <c r="CC65" s="7"/>
     </row>
-    <row r="66" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>184</v>
       </c>
@@ -20416,7 +20416,7 @@
       </c>
       <c r="CC66" s="3"/>
     </row>
-    <row r="67" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -20611,7 +20611,7 @@
       </c>
       <c r="CC67" s="3"/>
     </row>
-    <row r="68" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>80</v>
       </c>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="CC68" s="6"/>
     </row>
-    <row r="69" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>184</v>
       </c>
@@ -21029,7 +21029,7 @@
       </c>
       <c r="CC69" s="3"/>
     </row>
-    <row r="70" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>289</v>
       </c>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="CC70"/>
     </row>
-    <row r="71" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>80</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="72" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>184</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>80</v>
       </c>
@@ -21840,7 +21840,7 @@
       </c>
       <c r="CC73"/>
     </row>
-    <row r="74" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>184</v>
       </c>
@@ -22049,7 +22049,7 @@
       </c>
       <c r="CC74"/>
     </row>
-    <row r="75" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>184</v>
       </c>
@@ -22260,7 +22260,7 @@
       </c>
       <c r="CC75" s="8"/>
     </row>
-    <row r="76" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>80</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>80</v>
       </c>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="CC77" s="3"/>
     </row>
-    <row r="78" spans="1:81" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:81" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="CC78" s="3"/>
     </row>
-    <row r="79" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>80</v>
       </c>
@@ -23099,7 +23099,7 @@
       </c>
       <c r="CC79"/>
     </row>
-    <row r="80" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
@@ -23310,7 +23310,7 @@
       </c>
       <c r="CC80" s="9"/>
     </row>
-    <row r="81" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>184</v>
       </c>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="CC81" s="8"/>
     </row>
-    <row r="82" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>80</v>
       </c>
@@ -23736,7 +23736,7 @@
       </c>
       <c r="CC82" s="6"/>
     </row>
-    <row r="83" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>80</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>184</v>
       </c>
@@ -24147,7 +24147,7 @@
       </c>
       <c r="CC84" s="3"/>
     </row>
-    <row r="85" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>80</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:81" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>80</v>
       </c>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="CC86"/>
     </row>
-    <row r="87" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>80</v>
       </c>
@@ -24764,7 +24764,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:81" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:81" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>80</v>
       </c>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="CC88"/>
     </row>
-    <row r="89" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>184</v>
       </c>
@@ -25187,7 +25187,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>80</v>
       </c>
@@ -25382,7 +25382,7 @@
       </c>
       <c r="CC90" s="18"/>
     </row>
-    <row r="91" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>80</v>
       </c>
@@ -25582,7 +25582,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>184</v>
       </c>
@@ -25806,7 +25806,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>184</v>
       </c>
@@ -26027,7 +26027,7 @@
       </c>
       <c r="CC93" s="6"/>
     </row>
-    <row r="94" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>80</v>
       </c>
@@ -26243,7 +26243,7 @@
       </c>
       <c r="CC94"/>
     </row>
-    <row r="95" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:81" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>80</v>
       </c>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="CC95" s="3"/>
     </row>
-    <row r="96" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>184</v>
       </c>
@@ -26665,7 +26665,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>80</v>
       </c>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="CC97" s="6"/>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>80</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>184</v>
       </c>
@@ -27299,7 +27299,7 @@
       </c>
       <c r="CC99" s="3"/>
     </row>
-    <row r="100" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>80</v>
       </c>
@@ -27508,7 +27508,7 @@
       </c>
       <c r="CC100" s="3"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>80</v>
       </c>
@@ -27644,7 +27644,9 @@
         <v>1290</v>
       </c>
       <c r="AY101" s="3"/>
-      <c r="AZ101" s="3"/>
+      <c r="AZ101" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="BA101" s="3" t="s">
         <v>1291</v>
       </c>
